--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71486\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/tkl17_ic_ac_uk/Documents/2020/38_python_plottingscript/MSc_Masterclass/calculation-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B83417-5541-4E69-ACC7-03994A3FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F6B83417-5541-4E69-ACC7-03994A3FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4ADA873-713E-4DAF-9ADB-0E0A87DAF0F3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{D26BB201-B244-46A4-B768-453E227BD50A}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{D26BB201-B244-46A4-B768-453E227BD50A}"/>
   </bookViews>
   <sheets>
     <sheet name=" reinforcement calculation" sheetId="2" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -377,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,30 +791,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C08ADD1-8871-4B98-9B27-D77F959F264E}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="8" width="25.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="15" width="21.453125" customWidth="1"/>
-    <col min="16" max="16" width="31.54296875" customWidth="1"/>
-    <col min="17" max="17" width="8.453125" customWidth="1"/>
-    <col min="18" max="19" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="18" max="19" width="25.7109375" customWidth="1"/>
     <col min="20" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
     <col min="23" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="27.54296875" customWidth="1"/>
+    <col min="26" max="26" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -974,7 +975,7 @@
         <v>9.4202898550724658E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>36.128315516282626</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>23.122121930420882</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>17.702874602978483</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>13.006193585861741</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>9.0320788790706565</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>5.7805304826052204</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1714,20 +1715,25 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S17" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="N4:N5"/>
@@ -1737,18 +1743,13 @@
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,22 +1763,22 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1869,12 +1870,12 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1882,112 +1883,80 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>836.41099999999994</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>637.27112499999998</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>453.12212499999998</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B4" s="7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>372.34809374999998</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B5" s="7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>296.25934375000003</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B6" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>223.99264062500001</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B7" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>158.7831875</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B8" s="7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f7e36cb-87f8-4dca-acd2-d575ae7c79f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100171EAA45349A254F884BA58CCC371E3C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3103d3e062f203781304c43b0dc558d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="260433fa-149d-4156-811f-d0ff6b6f9266" xmlns:ns4="7f7e36cb-87f8-4dca-acd2-d575ae7c79f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecfb02984f1f0d4d3045fd84b42f0c35" ns3:_="" ns4:_="">
     <xsd:import namespace="260433fa-149d-4156-811f-d0ff6b6f9266"/>
@@ -2208,14 +2177,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f7e36cb-87f8-4dca-acd2-d575ae7c79f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2226,6 +2187,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC9774C-7700-4B5A-83C3-AF19F9ECDD66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7f7e36cb-87f8-4dca-acd2-d575ae7c79f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="260433fa-149d-4156-811f-d0ff6b6f9266"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945D629C-FFD5-49FD-956E-89B60688A55D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2244,23 +2222,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC9774C-7700-4B5A-83C3-AF19F9ECDD66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7f7e36cb-87f8-4dca-acd2-d575ae7c79f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="260433fa-149d-4156-811f-d0ff6b6f9266"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8231156F-4961-477E-9BB9-3EE8C82F7313}">
   <ds:schemaRefs>
